--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_2_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_2_sawtooth_10_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.42000000000007</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07598828471710029</v>
+        <v>0.1732878300135929</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07598828471710029</v>
+        <v>0.1732878300135929</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>7.148167581052213</v>
+        <v>5.857012294030505</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-0.9795430769823597, 15.275878239086786]</t>
+          <t>[-2.3249286697437475, 14.038953257804756]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.08327205786770686</v>
+        <v>0.1562857303051315</v>
       </c>
       <c r="O2" t="n">
-        <v>0.08327205786770686</v>
+        <v>0.1562857303051315</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.157263359880925</v>
+        <v>-1.094368612061309</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.9812110466497743, 0.6666843268879252]</t>
+          <t>[-4.151053356094622, 1.9623161319720035]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.2078327760683414</v>
+        <v>0.4745786319502259</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2078327760683414</v>
+        <v>0.4745786319502259</v>
       </c>
       <c r="T2" t="n">
-        <v>11.52199676413569</v>
+        <v>11.58047065450787</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.217648813857776, 15.82634471441361]</t>
+          <t>[7.249330625982233, 15.911610683033516]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.473986855600074e-06</v>
+        <v>2.525985185020119e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>2.473986855600074e-06</v>
+        <v>2.525985185020119e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>4.129409409409423</v>
+        <v>3.917177177177191</v>
       </c>
       <c r="Y2" t="n">
-        <v>-2.378898898898908</v>
+        <v>-7.02390390390393</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.63771771771775</v>
+        <v>14.85825825825831</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.42000000000007</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05403893775967106</v>
+        <v>0.04583356748243406</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05403893775967106</v>
+        <v>0.04583356748243406</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>6.555067929287049</v>
+        <v>6.562163721933154</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-0.6378400551847676, 13.747975913758866]</t>
+          <t>[-0.2698686858259247, 13.394196129692233]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.07304533621124976</v>
+        <v>0.05934797905596567</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07304533621124976</v>
+        <v>0.05934797905596567</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.8302106712189241</v>
+        <v>-0.7295790747075399</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.962369112635775, 2.301947770197927]</t>
+          <t>[-3.3648690083494284, 1.9057108589343486]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.5960667666211417</v>
+        <v>0.5798783928151803</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5960667666211417</v>
+        <v>0.5798783928151803</v>
       </c>
       <c r="T3" t="n">
-        <v>10.14661370324561</v>
+        <v>10.01375655322441</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.380154360395383, 13.913073046095835]</t>
+          <t>[6.3330699369874175, 13.694443169461398]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.201989856009945e-06</v>
+        <v>1.83589242208626e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>2.201989856009945e-06</v>
+        <v>1.83589242208626e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>2.962402402402411</v>
+        <v>2.611451451451462</v>
       </c>
       <c r="Y3" t="n">
-        <v>-8.213933933933959</v>
+        <v>-6.821291291291312</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.13873873873878</v>
+        <v>12.04419419419423</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.42000000000007</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2711886576685039</v>
+        <v>0.1402035700999855</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2711886576685039</v>
+        <v>0.1402035700999855</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>4.695645199040117</v>
+        <v>5.998834074983674</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-3.092100349113929, 12.483390747194163]</t>
+          <t>[-1.4746576950493644, 13.472325845016712]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.2309257953000368</v>
+        <v>0.1129364084042717</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2309257953000368</v>
+        <v>0.1129364084042717</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.4151053356094625</v>
+        <v>0.01886842434588409</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.5095269283345436, 2.6793162571156186]</t>
+          <t>[-1.559789745926464, 1.5975265946182322]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.7882535269572248</v>
+        <v>0.9809008548627274</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7882535269572248</v>
+        <v>0.9809008548627274</v>
       </c>
       <c r="T4" t="n">
-        <v>9.953487455663499</v>
+        <v>10.79627286889774</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[5.766561131759884, 14.140413779567114]</t>
+          <t>[6.46134643452034, 15.131199303275135]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.856421981139e-05</v>
+        <v>8.716182318124766e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>1.856421981139e-05</v>
+        <v>8.716182318124766e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>1.481201201201209</v>
+        <v>22.42246246246254</v>
       </c>
       <c r="Y4" t="n">
-        <v>-9.560480480480503</v>
+        <v>16.77182182182188</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.52288288288292</v>
+        <v>28.0731031031032</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.42000000000007</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2899310189879686</v>
+        <v>0.2025458722547305</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2899310189879686</v>
+        <v>0.2025458722547305</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>4.512969307190223</v>
+        <v>5.184132230563446</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-3.3602196381214036, 12.38615825250185]</t>
+          <t>[-2.114609116574222, 12.482873577701113]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.2543900611685577</v>
+        <v>0.159460470654937</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2543900611685577</v>
+        <v>0.159460470654937</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.4276842851733855</v>
+        <v>-0.07547369738353815</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.478079554424736, 2.622710984077965]</t>
+          <t>[-2.6541583579877734, 2.503210963220697]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.778939481549944</v>
+        <v>0.9532534453349193</v>
       </c>
       <c r="S5" t="n">
-        <v>0.778939481549944</v>
+        <v>0.9532534453349193</v>
       </c>
       <c r="T5" t="n">
-        <v>10.63270351102026</v>
+        <v>10.63495650169597</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.499842935369337, 14.765564086671176]</t>
+          <t>[6.455214204101697, 14.814698799290245]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.011293861878485e-06</v>
+        <v>6.066625095835221e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>5.011293861878485e-06</v>
+        <v>6.066625095835221e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>1.526086086086092</v>
+        <v>0.2701501501501511</v>
       </c>
       <c r="Y5" t="n">
-        <v>-9.358498498498523</v>
+        <v>-8.959979979980012</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.41067067067071</v>
+        <v>9.500280280280315</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.42000000000007</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1551021011208895</v>
+        <v>0.2076672476692608</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1551021011208895</v>
+        <v>0.2076672476692608</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4.861901516715159</v>
+        <v>4.886444504957307</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.7225767345761795, 11.446379768006498]</t>
+          <t>[-2.6347669072284443, 12.407655917143058]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.143938503878466</v>
+        <v>0.1973343108268844</v>
       </c>
       <c r="O6" t="n">
-        <v>0.143938503878466</v>
+        <v>0.1973343108268844</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2704474156243464</v>
+        <v>0.9245527929483472</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-2.603842559732081, 3.1447373909807737]</t>
+          <t>[-2.201316173686541, 4.0504217595832355]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.8505447002802962</v>
+        <v>0.5543463984890256</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8505447002802962</v>
+        <v>0.5543463984890256</v>
       </c>
       <c r="T6" t="n">
-        <v>9.272904343997922</v>
+        <v>9.227706332058062</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[5.687405696688327, 12.858402991307518]</t>
+          <t>[5.430559217624908, 13.024853446491218]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.574192372208685e-06</v>
+        <v>1.30552479453705e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>4.574192372208685e-06</v>
+        <v>1.30552479453705e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>21.45497497497504</v>
+        <v>19.18066066066073</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.19877877877881</v>
+        <v>7.991941941941976</v>
       </c>
       <c r="Z6" t="n">
-        <v>31.71117117117126</v>
+        <v>30.36937937937948</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.42000000000007</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1180139560598591</v>
+        <v>0.09630444076667921</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1180139560598591</v>
+        <v>0.09630444076667921</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.73171707938777</v>
+        <v>6.309549953690136</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.4974163300653203, 12.96085048884086]</t>
+          <t>[-1.3868151975837755, 14.005915104964048]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1172854002895889</v>
+        <v>0.1056645808369456</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1172854002895889</v>
+        <v>0.1056645808369456</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8365001460008852</v>
+        <v>0.9371317425122703</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.3019477701979265, 3.974948062199697]</t>
+          <t>[-2.0189214050096576, 3.893184890034198]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.5940327865781003</v>
+        <v>0.5263758961377316</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5940327865781003</v>
+        <v>0.5263758961377316</v>
       </c>
       <c r="T7" t="n">
-        <v>9.941159235453984</v>
+        <v>11.33272789729257</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.128377312839274, 13.753941158068695]</t>
+          <t>[7.34471790511396, 15.320737889471182]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.965499197899902e-06</v>
+        <v>8.020787636286997e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>3.965499197899902e-06</v>
+        <v>8.020787636286997e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>19.43515515515521</v>
+        <v>19.1356356356357</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.236376376376406</v>
+        <v>8.554754754754782</v>
       </c>
       <c r="Z7" t="n">
-        <v>30.63393393393402</v>
+        <v>29.71651651651662</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.42000000000007</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2403764524002496</v>
+        <v>0.1291665416374209</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2403764524002496</v>
+        <v>0.1291665416374209</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>5.518951491492129</v>
+        <v>6.875355576232048</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-3.12615910077342, 14.164062083757678]</t>
+          <t>[-2.1582588564324823, 15.908970008896578]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.205095985342189</v>
+        <v>0.1323001813220075</v>
       </c>
       <c r="O8" t="n">
-        <v>0.205095985342189</v>
+        <v>0.1323001813220075</v>
       </c>
       <c r="P8" t="n">
-        <v>1.000026490331886</v>
+        <v>1.012605439895809</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.132131951084964, 4.1321849317487365]</t>
+          <t>[-2.0629477284833877, 4.088158608275006]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.523450492627118</v>
+        <v>0.5106300103746038</v>
       </c>
       <c r="S8" t="n">
-        <v>0.523450492627118</v>
+        <v>0.5106300103746038</v>
       </c>
       <c r="T8" t="n">
-        <v>10.49982612974908</v>
+        <v>11.97254767286667</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.00335192734709, 14.99630033215108]</t>
+          <t>[7.331216429591516, 16.61387891614183]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.45423677998069e-05</v>
+        <v>4.785324860812068e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>2.45423677998069e-05</v>
+        <v>4.785324860812068e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>18.85165165165171</v>
+        <v>18.86548548548555</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.67531531531534</v>
+        <v>7.856866866866893</v>
       </c>
       <c r="Z8" t="n">
-        <v>30.02798798798808</v>
+        <v>29.87410410410421</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.42000000000007</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09670239221005517</v>
+        <v>0.08887645799981103</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09670239221005517</v>
+        <v>0.08887645799981103</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.676712814664755</v>
+        <v>5.547772306138288</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-1.0938336572289202, 12.447259286558431]</t>
+          <t>[-0.9809306882669091, 12.076475300543486]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.09819412667939487</v>
+        <v>0.09387667939878752</v>
       </c>
       <c r="O9" t="n">
-        <v>0.09819412667939487</v>
+        <v>0.09387667939878752</v>
       </c>
       <c r="P9" t="n">
-        <v>1.943447707626118</v>
+        <v>1.930868758062195</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.044026323473730145, 3.842869091778505]</t>
+          <t>[0.11950002085726918, 3.74223749526712]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.04513123216252279</v>
+        <v>0.03721997852275827</v>
       </c>
       <c r="S9" t="n">
-        <v>0.04513123216252279</v>
+        <v>0.03721997852275827</v>
       </c>
       <c r="T9" t="n">
-        <v>9.288648350116215</v>
+        <v>8.269922308287761</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[5.698652399682727, 12.878644300549704]</t>
+          <t>[4.82566959772889, 11.714175018846632]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.538887915073175e-06</v>
+        <v>1.584810032073669e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>4.538887915073175e-06</v>
+        <v>1.584810032073669e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>15.48528528528533</v>
+        <v>15.57865865865871</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.707667667667694</v>
+        <v>9.095055055055088</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.26290290290297</v>
+        <v>22.06226226226234</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.42000000000007</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2273146430423689</v>
+        <v>0.05955803072671917</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2273146430423689</v>
+        <v>0.05955803072671917</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.138784147975871</v>
+        <v>7.177864536824143</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.9129252330938122, 13.190493529045554]</t>
+          <t>[-0.9288275505808263, 15.284556624229111]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.2052125218550487</v>
+        <v>0.08127693254843438</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2052125218550487</v>
+        <v>0.08127693254843438</v>
       </c>
       <c r="P10" t="n">
-        <v>2.295658295415965</v>
+        <v>2.333395144107734</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.8176317216550011, 5.408948312486931]</t>
+          <t>[-0.798763297309117, 5.465553585524585]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1444770930476968</v>
+        <v>0.1404778346629785</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1444770930476968</v>
+        <v>0.1404778346629785</v>
       </c>
       <c r="T10" t="n">
-        <v>10.44671180503313</v>
+        <v>11.41409145593085</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[6.236136143385335, 14.657287466680923]</t>
+          <t>[7.215212930864738, 15.612969980996972]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>9.287694666904045e-06</v>
+        <v>1.864344108204463e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>9.287694666904045e-06</v>
+        <v>1.864344108204463e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>14.22850850850855</v>
+        <v>14.13785785785791</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.11949949949951</v>
+        <v>2.926626626626636</v>
       </c>
       <c r="Z10" t="n">
-        <v>25.33751751751759</v>
+        <v>25.34908908908918</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.3000000000002</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1006704558979385</v>
+        <v>0.1503541294474727</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1006704558979385</v>
+        <v>0.1503541294474727</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5.988009266556798</v>
+        <v>5.536435373481118</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.4523430712885794, 13.428361604402175]</t>
+          <t>[-1.9623863649508628, 13.035257111913099]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1120146575336523</v>
+        <v>0.1439813927688944</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1120146575336523</v>
+        <v>0.1439813927688944</v>
       </c>
       <c r="P11" t="n">
-        <v>2.35855304323558</v>
+        <v>2.547237286694427</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.7358685494895019, 5.452974635960662]</t>
+          <t>[-0.5534737808126167, 5.64794835420147]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1317512490601507</v>
+        <v>0.1049675425269867</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1317512490601507</v>
+        <v>0.1049675425269867</v>
       </c>
       <c r="T11" t="n">
-        <v>10.23168016806501</v>
+        <v>9.221503892230018</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[6.351697373895366, 14.111662962234657]</t>
+          <t>[5.230521991604877, 13.212485792855158]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.241886743277078e-06</v>
+        <v>2.885538511310237e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>3.241886743277078e-06</v>
+        <v>2.885538511310237e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>14.55375375375388</v>
+        <v>13.84810810810823</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.078678678678703</v>
+        <v>2.354644644644665</v>
       </c>
       <c r="Z11" t="n">
-        <v>26.02882882882906</v>
+        <v>25.34157157157179</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.3000000000002</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04487743790057608</v>
+        <v>0.05114320291190566</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04487743790057608</v>
+        <v>0.05114320291190566</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>7.01630582588966</v>
+        <v>6.873884328207913</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.3252198990906585, 14.357831550869978]</t>
+          <t>[-0.4091721189612496, 14.156940775377075]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.06057975833681106</v>
+        <v>0.06372485919483295</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06057975833681106</v>
+        <v>0.06372485919483295</v>
       </c>
       <c r="P12" t="n">
-        <v>2.660447832769734</v>
+        <v>2.748500479717196</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.9874475407679619, 4.333448124771506]</t>
+          <t>[1.1383949355350387, 4.358606023899353]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.002499740314486187</v>
+        <v>0.001272436261324783</v>
       </c>
       <c r="S12" t="n">
-        <v>0.002499740314486187</v>
+        <v>0.001272436261324783</v>
       </c>
       <c r="T12" t="n">
-        <v>10.32905134554814</v>
+        <v>10.06490742138223</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[6.422315158715691, 14.235787532380584]</t>
+          <t>[6.143266272975851, 13.986548569788614]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.094279823478985e-06</v>
+        <v>5.226265785696071e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>3.094279823478985e-06</v>
+        <v>5.226265785696071e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>13.43423423423435</v>
+        <v>13.1020820820822</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.230230230230295</v>
+        <v>7.133873873873935</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.63823823823842</v>
+        <v>19.07029029029046</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.3000000000002</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01786285691904532</v>
+        <v>0.04764008218874738</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01786285691904532</v>
+        <v>0.04764008218874738</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>8.277911643711704</v>
+        <v>7.362180847728274</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[1.5793365218317916, 14.976486765591616]</t>
+          <t>[0.0809148351838882, 14.64344686027266]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.01657690212167684</v>
+        <v>0.04761164043917887</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01657690212167684</v>
+        <v>0.04761164043917887</v>
       </c>
       <c r="P13" t="n">
-        <v>3.062974218815274</v>
+        <v>3.037816319687427</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.9057108589343494, 4.2202375786961985]</t>
+          <t>[1.6792897667837337, 4.396342872591122]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.035368669301874e-06</v>
+        <v>4.702412502477493e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>3.035368669301874e-06</v>
+        <v>4.702412502477493e-05</v>
       </c>
       <c r="T13" t="n">
-        <v>11.61588264089748</v>
+        <v>11.11293906143207</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[7.5930639270565585, 15.638701354738409]</t>
+          <t>[6.949795940177911, 15.276082182686238]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>5.857680953624822e-07</v>
+        <v>2.60283566411168e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>5.857680953624822e-07</v>
+        <v>2.60283566411168e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>11.94154154154165</v>
+        <v>12.02966966966977</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.650050050050118</v>
+        <v>6.993993993994057</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.23303303303317</v>
+        <v>17.06534534534549</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.3000000000002</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1472565374909929</v>
+        <v>0.06436537220441219</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1472565374909929</v>
+        <v>0.06436537220441219</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>5.748603418413373</v>
+        <v>6.329688488026223</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-1.8465581518168896, 13.343764988643635]</t>
+          <t>[-0.5587220565775723, 13.218099032630018]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1343994709011778</v>
+        <v>0.07077798591929874</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1343994709011778</v>
+        <v>0.07077798591929874</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.830263651882697</v>
+        <v>-2.792526803190928</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-5.119632472516701, -0.5408948312486928]</t>
+          <t>[-4.478106044756622, -1.1069475616252333]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.01653649026161408</v>
+        <v>0.001706780713612632</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01653649026161408</v>
+        <v>0.001706780713612632</v>
       </c>
       <c r="T14" t="n">
-        <v>9.970822257708519</v>
+        <v>9.299048380328587</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[5.832308877110701, 14.109335638306337]</t>
+          <t>[5.5322804122730656, 13.065816348384109]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.500640203389025e-05</v>
+        <v>1.008964292115166e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>1.500640203389025e-05</v>
+        <v>1.008964292115166e-05</v>
       </c>
       <c r="X14" t="n">
-        <v>10.49549549549559</v>
+        <v>10.3511111111112</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.005805805805823</v>
+        <v>4.103143143143184</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.98518518518535</v>
+        <v>16.59907907907922</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.3000000000002</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1034245147661281</v>
+        <v>0.06148505423623851</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1034245147661281</v>
+        <v>0.06148505423623851</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>6.420746598295676</v>
+        <v>6.498200917281232</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-1.4087013532821562, 14.250194549873507]</t>
+          <t>[-0.9286132778753213, 13.925015112437785]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.1055541372645736</v>
+        <v>0.08481535452468103</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1055541372645736</v>
+        <v>0.08481535452468103</v>
       </c>
       <c r="P15" t="n">
-        <v>-2.80510575275485</v>
+        <v>-2.64157940842385</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-4.654211338651544, -0.9560001668581557]</t>
+          <t>[-4.452948145628776, -0.8302106712189237]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.003770922606253224</v>
+        <v>0.005204647313992172</v>
       </c>
       <c r="S15" t="n">
-        <v>0.003770922606253224</v>
+        <v>0.005204647313992172</v>
       </c>
       <c r="T15" t="n">
-        <v>10.25790658897377</v>
+        <v>10.08252318892918</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[6.0299793668195, 14.48583381112805]</t>
+          <t>[6.259791332630424, 13.905255045227928]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.340323134213506e-05</v>
+        <v>3.231451137120089e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>1.340323134213506e-05</v>
+        <v>3.231451137120089e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>10.40220220220229</v>
+        <v>9.791591591591676</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.54514514514518</v>
+        <v>3.077357357357382</v>
       </c>
       <c r="Z15" t="n">
-        <v>17.25925925925941</v>
+        <v>16.50582582582597</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.3000000000002</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1261000845234684</v>
+        <v>0.07128363624712974</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1261000845234684</v>
+        <v>0.07128363624712974</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>6.08866155649695</v>
+        <v>7.344727612103447</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-2.073490435915339, 14.250813548909239]</t>
+          <t>[-1.3960309038975476, 16.085486128104442]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.1399675395942224</v>
+        <v>0.09747968181949784</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1399675395942224</v>
+        <v>0.09747968181949784</v>
       </c>
       <c r="P16" t="n">
-        <v>-2.603842559732081</v>
+        <v>-2.440316215401081</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-5.421527262050854, 0.21384214258669232]</t>
+          <t>[-5.182527220336315, 0.3018947895341535]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.06924934551894069</v>
+        <v>0.07979852405946541</v>
       </c>
       <c r="S16" t="n">
-        <v>0.06924934551894069</v>
+        <v>0.07979852405946541</v>
       </c>
       <c r="T16" t="n">
-        <v>10.62890325813448</v>
+        <v>11.26683429691472</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[6.441238223358108, 14.816568292910858]</t>
+          <t>[6.84341091816027, 15.690257675669177]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>6.328025146551397e-06</v>
+        <v>5.95799607849834e-06</v>
       </c>
       <c r="W16" t="n">
-        <v>6.328025146551397e-06</v>
+        <v>5.95799607849834e-06</v>
       </c>
       <c r="X16" t="n">
-        <v>9.65585585585594</v>
+        <v>9.045565565565644</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.7929929929929997</v>
+        <v>-1.119039039039047</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.10470470470488</v>
+        <v>19.21017017017034</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.3000000000002</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1584150145950498</v>
+        <v>0.05879164467904341</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1584150145950498</v>
+        <v>0.05879164467904341</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>5.358110338162998</v>
+        <v>6.324549845014211</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-1.8397247795261222, 12.555945455852118]</t>
+          <t>[-0.575710835070673, 13.224810525099095]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.1407765895687609</v>
+        <v>0.0714676484386354</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1407765895687609</v>
+        <v>0.0714676484386354</v>
       </c>
       <c r="P17" t="n">
-        <v>-2.717053105807389</v>
+        <v>-2.603842559732081</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-5.383790413359085, -0.05031579825569299]</t>
+          <t>[-4.440369196064854, -0.7673159233993085]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.04600418256341321</v>
+        <v>0.006476566135172668</v>
       </c>
       <c r="S17" t="n">
-        <v>0.04600418256341321</v>
+        <v>0.006476566135172668</v>
       </c>
       <c r="T17" t="n">
-        <v>10.28651665097333</v>
+        <v>10.6161208486228</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[6.358290153486282, 14.214743148460384]</t>
+          <t>[6.9274500562089845, 14.304791641036621]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>3.673434952888854e-06</v>
+        <v>6.2509898435259e-07</v>
       </c>
       <c r="W17" t="n">
-        <v>3.673434952888854e-06</v>
+        <v>6.2509898435259e-07</v>
       </c>
       <c r="X17" t="n">
-        <v>10.07567567567576</v>
+        <v>9.651711711711796</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.1865865865865892</v>
+        <v>2.844224224224246</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.96476476476494</v>
+        <v>16.45919919919934</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_2_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_2_sawtooth_10_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.49000000000008</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1732878300135929</v>
+        <v>0.04350978463309907</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1732878300135929</v>
+        <v>0.04350978463309907</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>5.857012294030505</v>
+        <v>8.119472387934229</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-2.3249286697437475, 14.038953257804756]</t>
+          <t>[0.49370319087812575, 15.745241584990332]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1562857303051315</v>
+        <v>0.03742927378845962</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1562857303051315</v>
+        <v>0.03742927378845962</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.094368612061309</v>
+        <v>-1.408842351159387</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.151053356094622, 1.9623161319720035]</t>
+          <t>[-2.679316257115619, -0.1383684452031546]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.4745786319502259</v>
+        <v>0.03053480274378972</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4745786319502259</v>
+        <v>0.03053480274378972</v>
       </c>
       <c r="T2" t="n">
-        <v>11.58047065450787</v>
+        <v>12.6209063116452</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.249330625982233, 15.911610683033516]</t>
+          <t>[8.265151463305259, 16.97666115998515]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.525985185020119e-06</v>
+        <v>5.467864458985616e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>2.525985185020119e-06</v>
+        <v>5.467864458985616e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>3.917177177177191</v>
+        <v>5.020380380380395</v>
       </c>
       <c r="Y2" t="n">
-        <v>-7.02390390390393</v>
+        <v>0.4930730730730772</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.85825825825831</v>
+        <v>9.547687687687713</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.49000000000008</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04583356748243406</v>
+        <v>0.05364576744074812</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04583356748243406</v>
+        <v>0.05364576744074812</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>6.562163721933154</v>
+        <v>6.087418621001677</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-0.2698686858259247, 13.394196129692233]</t>
+          <t>[-0.4707319935009995, 12.645569235504354]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.05934797905596567</v>
+        <v>0.0680636783159414</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05934797905596567</v>
+        <v>0.0680636783159414</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.7295790747075399</v>
+        <v>-0.792473822527155</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.3648690083494284, 1.9057108589343486]</t>
+          <t>[-3.761105919613005, 2.176158274558695]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.5798783928151803</v>
+        <v>0.5934587638225723</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5798783928151803</v>
+        <v>0.5934587638225723</v>
       </c>
       <c r="T3" t="n">
-        <v>10.01375655322441</v>
+        <v>9.716989564988404</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.3330699369874175, 13.694443169461398]</t>
+          <t>[6.2162674792202814, 13.217711650756527]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.83589242208626e-06</v>
+        <v>1.260276870196364e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>1.83589242208626e-06</v>
+        <v>1.260276870196364e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>2.611451451451462</v>
+        <v>2.823963963963973</v>
       </c>
       <c r="Y3" t="n">
-        <v>-6.821291291291312</v>
+        <v>-7.754694694694713</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.04419419419423</v>
+        <v>13.40262262262266</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.49000000000008</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1402035700999855</v>
+        <v>0.09144107044257666</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1402035700999855</v>
+        <v>0.09144107044257666</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5.998834074983674</v>
+        <v>5.950445759537274</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.4746576950493644, 13.472325845016712]</t>
+          <t>[-1.1539659334130654, 13.054857452487614]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1129364084042717</v>
+        <v>0.09853367112277489</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1129364084042717</v>
+        <v>0.09853367112277489</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01886842434588409</v>
+        <v>-0.4025263860455386</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-1.559789745926464, 1.5975265946182322]</t>
+          <t>[-2.295658295415965, 1.4906055233248878]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.9809008548627274</v>
+        <v>0.6705134839628573</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9809008548627274</v>
+        <v>0.6705134839628573</v>
       </c>
       <c r="T4" t="n">
-        <v>10.79627286889774</v>
+        <v>9.698877360776688</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.46134643452034, 15.131199303275135]</t>
+          <t>[5.820978260811234, 13.576776460742142]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>8.716182318124766e-06</v>
+        <v>8.121051749521158e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>8.716182318124766e-06</v>
+        <v>8.121051749521158e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>22.42246246246254</v>
+        <v>1.434394394394396</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.77182182182188</v>
+        <v>-5.311741741741761</v>
       </c>
       <c r="Z4" t="n">
-        <v>28.0731031031032</v>
+        <v>8.180530530530552</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.49000000000008</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2025458722547305</v>
+        <v>0.4692725619179658</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2025458722547305</v>
+        <v>0.4692725619179658</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.184132230563446</v>
+        <v>3.391261509452325</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-2.114609116574222, 12.482873577701113]</t>
+          <t>[-3.8325967184540612, 10.615119737358711]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.159460470654937</v>
+        <v>0.3494396033544209</v>
       </c>
       <c r="O5" t="n">
-        <v>0.159460470654937</v>
+        <v>0.3494396033544209</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.07547369738353815</v>
+        <v>-0.1761052938949232</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-2.6541583579877734, 2.503210963220697]</t>
+          <t>[-3.2893953109658893, 2.937184723176043]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.9532534453349193</v>
+        <v>0.9098008080886393</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9532534453349193</v>
+        <v>0.9098008080886393</v>
       </c>
       <c r="T5" t="n">
-        <v>10.63495650169597</v>
+        <v>9.27427435840637</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.455214204101697, 14.814698799290245]</t>
+          <t>[5.260968883006724, 13.287579833806015]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>6.066625095835221e-06</v>
+        <v>2.879907538022586e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>6.066625095835221e-06</v>
+        <v>2.879907538022586e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2701501501501511</v>
+        <v>0.6275475475475503</v>
       </c>
       <c r="Y5" t="n">
-        <v>-8.959979979980012</v>
+        <v>-10.46659659659662</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.500280280280315</v>
+        <v>11.72169169169172</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.49000000000008</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2076672476692608</v>
+        <v>0.1427844954086731</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2076672476692608</v>
+        <v>0.1427844954086731</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4.886444504957307</v>
+        <v>6.05564644919125</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-2.6347669072284443, 12.407655917143058]</t>
+          <t>[-2.2952379569240273, 14.406530855306528]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1973343108268844</v>
+        <v>0.1510923478115236</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1973343108268844</v>
+        <v>0.1510923478115236</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9245527929483472</v>
+        <v>0.4717106086471166</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-2.201316173686541, 4.0504217595832355]</t>
+          <t>[-2.4654741145289267, 3.40889533182316]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.5543463984890256</v>
+        <v>0.7478422315303863</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5543463984890256</v>
+        <v>0.7478422315303863</v>
       </c>
       <c r="T6" t="n">
-        <v>9.227706332058062</v>
+        <v>10.31834738155599</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[5.430559217624908, 13.024853446491218]</t>
+          <t>[5.994319040582808, 14.642375722529167]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.30552479453705e-05</v>
+        <v>1.748677532353859e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>1.30552479453705e-05</v>
+        <v>1.748677532353859e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>19.18066066066073</v>
+        <v>20.70906906906912</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.991941941941976</v>
+        <v>10.2424724724725</v>
       </c>
       <c r="Z6" t="n">
-        <v>30.36937937937948</v>
+        <v>31.17566566566575</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.49000000000008</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09630444076667921</v>
+        <v>0.08930071101857184</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09630444076667921</v>
+        <v>0.08930071101857184</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>6.309549953690136</v>
+        <v>6.600842536273574</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.3868151975837755, 14.005915104964048]</t>
+          <t>[-1.4087847995597018, 14.61046987210685]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1056645808369456</v>
+        <v>0.1038986515412872</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1056645808369456</v>
+        <v>0.1038986515412872</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9371317425122703</v>
+        <v>0.786184347745194</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.0189214050096576, 3.893184890034198]</t>
+          <t>[-2.352263568453619, 3.924632263944007]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.5263758961377316</v>
+        <v>0.6163472828470185</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5263758961377316</v>
+        <v>0.6163472828470185</v>
       </c>
       <c r="T7" t="n">
-        <v>11.33272789729257</v>
+        <v>11.68076776021028</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[7.34471790511396, 15.320737889471182]</t>
+          <t>[7.551699327025835, 15.809836193394732]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>8.020787636286997e-07</v>
+        <v>8.755702030072143e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>8.020787636286997e-07</v>
+        <v>8.755702030072143e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>19.1356356356357</v>
+        <v>19.5884484484485</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.554754754754782</v>
+        <v>8.404654654654673</v>
       </c>
       <c r="Z7" t="n">
-        <v>29.71651651651662</v>
+        <v>30.77224224224233</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.49000000000008</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1291665416374209</v>
+        <v>0.1068585842262656</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1291665416374209</v>
+        <v>0.1068585842262656</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>6.875355576232048</v>
+        <v>6.820590470385151</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.1582588564324823, 15.908970008896578]</t>
+          <t>[-1.4183467934502838, 15.059527734220588]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1323001813220075</v>
+        <v>0.1023861586771364</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1323001813220075</v>
+        <v>0.1023861586771364</v>
       </c>
       <c r="P8" t="n">
-        <v>1.012605439895809</v>
+        <v>0.7107106503616558</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.0629477284833877, 4.088158608275006]</t>
+          <t>[-2.3648425180175416, 3.7862638187408533]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.5106300103746038</v>
+        <v>0.6438705740281221</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5106300103746038</v>
+        <v>0.6438705740281221</v>
       </c>
       <c r="T8" t="n">
-        <v>11.97254767286667</v>
+        <v>10.70681030131641</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[7.331216429591516, 16.61387891614183]</t>
+          <t>[6.243732050774161, 15.169888551858657]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.785324860812068e-06</v>
+        <v>1.607157721528196e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>4.785324860812068e-06</v>
+        <v>1.607157721528196e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>18.86548548548555</v>
+        <v>19.85739739739745</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.856866866866893</v>
+        <v>8.897727727727748</v>
       </c>
       <c r="Z8" t="n">
-        <v>29.87410410410421</v>
+        <v>30.81706706706715</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.49000000000008</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08887645799981103</v>
+        <v>0.08611481926052122</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08887645799981103</v>
+        <v>0.08611481926052122</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.547772306138288</v>
+        <v>5.655153479453938</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.9809306882669091, 12.076475300543486]</t>
+          <t>[-0.8894362864424021, 12.199743245350279]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.09387667939878752</v>
+        <v>0.08862766195841987</v>
       </c>
       <c r="O9" t="n">
-        <v>0.09387667939878752</v>
+        <v>0.08862766195841987</v>
       </c>
       <c r="P9" t="n">
-        <v>1.930868758062195</v>
+        <v>1.956026657190042</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.11950002085726918, 3.74223749526712]</t>
+          <t>[0.08176317216550011, 3.830290142214583]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.03721997852275827</v>
+        <v>0.04118487548876892</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03721997852275827</v>
+        <v>0.04118487548876892</v>
       </c>
       <c r="T9" t="n">
-        <v>8.269922308287761</v>
+        <v>9.027826468380407</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[4.82566959772889, 11.714175018846632]</t>
+          <t>[5.537147124653977, 12.518505812106838]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.584810032073669e-05</v>
+        <v>4.572897601029524e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>1.584810032073669e-05</v>
+        <v>4.572897601029524e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>15.57865865865871</v>
+        <v>15.41973973973978</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.095055055055088</v>
+        <v>8.740840840840864</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.06226226226234</v>
+        <v>22.0986386386387</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.49000000000008</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05955803072671917</v>
+        <v>0.1004059911046248</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05955803072671917</v>
+        <v>0.1004059911046248</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>7.177864536824143</v>
+        <v>7.10648339040249</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.9288275505808263, 15.284556624229111]</t>
+          <t>[-1.4305265641505596, 15.64349334495554]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.08127693254843438</v>
+        <v>0.1005545325025965</v>
       </c>
       <c r="O10" t="n">
-        <v>0.08127693254843438</v>
+        <v>0.1005545325025965</v>
       </c>
       <c r="P10" t="n">
-        <v>2.333395144107734</v>
+        <v>2.35855304323558</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.798763297309117, 5.465553585524585]</t>
+          <t>[-0.7736053981812709, 5.490711484652431]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1404778346629785</v>
+        <v>0.1363506659570199</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1404778346629785</v>
+        <v>0.1363506659570199</v>
       </c>
       <c r="T10" t="n">
-        <v>11.41409145593085</v>
+        <v>11.06923723604058</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[7.215212930864738, 15.612969980996972]</t>
+          <t>[6.41967058820465, 15.718803883876511]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.864344108204463e-06</v>
+        <v>1.814684311662873e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>1.864344108204463e-06</v>
+        <v>1.814684311662873e-05</v>
       </c>
       <c r="X10" t="n">
-        <v>14.13785785785791</v>
+        <v>13.98534534534538</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.926626626626636</v>
+        <v>2.823963963963973</v>
       </c>
       <c r="Z10" t="n">
-        <v>25.34908908908918</v>
+        <v>25.1467267267268</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.2900000000002</v>
+        <v>23.17000000000018</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1503541294474727</v>
+        <v>0.06153645191843138</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1503541294474727</v>
+        <v>0.06153645191843138</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5.536435373481118</v>
+        <v>6.333493875342504</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.9623863649508628, 13.035257111913099]</t>
+          <t>[-0.5563895607463198, 13.223377311431328]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1439813927688944</v>
+        <v>0.07067281979725526</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1439813927688944</v>
+        <v>0.07067281979725526</v>
       </c>
       <c r="P11" t="n">
-        <v>2.547237286694427</v>
+        <v>2.245342497160273</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.5534737808126167, 5.64794835420147]</t>
+          <t>[-0.44026323473730855, 4.930948229057854]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1049675425269867</v>
+        <v>0.09912207225507053</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1049675425269867</v>
+        <v>0.09912207225507053</v>
       </c>
       <c r="T11" t="n">
-        <v>9.221503892230018</v>
+        <v>9.580843398033108</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[5.230521991604877, 13.212485792855158]</t>
+          <t>[5.8864631360322495, 13.275223660033967]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.885538511310237e-05</v>
+        <v>4.358767941248232e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>2.885538511310237e-05</v>
+        <v>4.358767941248232e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>13.84810810810823</v>
+        <v>14.89003003003015</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.354644644644665</v>
+        <v>4.986536536536573</v>
       </c>
       <c r="Z11" t="n">
-        <v>25.34157157157179</v>
+        <v>24.79352352352372</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.2900000000002</v>
+        <v>23.17000000000018</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05114320291190566</v>
+        <v>0.02121500098616402</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05114320291190566</v>
+        <v>0.02121500098616402</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>6.873884328207913</v>
+        <v>8.097108224223678</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.4091721189612496, 14.156940775377075]</t>
+          <t>[0.8053286409088329, 15.388887807538524]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.06372485919483295</v>
+        <v>0.03031726762020859</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06372485919483295</v>
+        <v>0.03031726762020859</v>
       </c>
       <c r="P12" t="n">
-        <v>2.748500479717196</v>
+        <v>2.484342538874811</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.1383949355350387, 4.358606023899353]</t>
+          <t>[1.4025528763774249, 3.5661322013721977]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.001272436261324783</v>
+        <v>3.165620084710774e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>0.001272436261324783</v>
+        <v>3.165620084710774e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>10.06490742138223</v>
+        <v>10.18751780082371</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[6.143266272975851, 13.986548569788614]</t>
+          <t>[6.188187299088781, 14.186848302558637]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>5.226265785696071e-06</v>
+        <v>5.949122714898891e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>5.226265785696071e-06</v>
+        <v>5.949122714898891e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>13.1020820820822</v>
+        <v>14.0086886886888</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.133873873873935</v>
+        <v>10.01945945945954</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.07029029029046</v>
+        <v>17.99791791791806</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.2900000000002</v>
+        <v>23.17000000000018</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04764008218874738</v>
+        <v>0.01169929786299762</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04764008218874738</v>
+        <v>0.01169929786299762</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>7.362180847728274</v>
+        <v>7.899002836414736</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[0.0809148351838882, 14.64344686027266]</t>
+          <t>[1.642681821369763, 14.155323851459709]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.04761164043917887</v>
+        <v>0.014501109374782</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04761164043917887</v>
+        <v>0.014501109374782</v>
       </c>
       <c r="P13" t="n">
-        <v>3.037816319687427</v>
+        <v>2.974921571867812</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.6792897667837337, 4.396342872591122]</t>
+          <t>[1.9182898084982716, 4.031553335237352]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.702412502477493e-05</v>
+        <v>9.59993371685286e-07</v>
       </c>
       <c r="S13" t="n">
-        <v>4.702412502477493e-05</v>
+        <v>9.59993371685286e-07</v>
       </c>
       <c r="T13" t="n">
-        <v>11.11293906143207</v>
+        <v>9.958132100998283</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[6.949795940177911, 15.276082182686238]</t>
+          <t>[6.3145411631545585, 13.601723038842007]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.60283566411168e-06</v>
+        <v>1.686607452588973e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>2.60283566411168e-06</v>
+        <v>1.686607452588973e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>12.02966966966977</v>
+        <v>12.19961961961972</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.993993993994057</v>
+        <v>8.303163163163227</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.06534534534549</v>
+        <v>16.0960760760762</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.2900000000002</v>
+        <v>23.17000000000018</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06436537220441219</v>
+        <v>0.07240286652021022</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06436537220441219</v>
+        <v>0.07240286652021022</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>6.329688488026223</v>
+        <v>6.583458786361766</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-0.5587220565775723, 13.218099032630018]</t>
+          <t>[-0.8574973515037971, 14.02441492422733]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.07077798591929874</v>
+        <v>0.0814980834089718</v>
       </c>
       <c r="O14" t="n">
-        <v>0.07077798591929874</v>
+        <v>0.0814980834089718</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.792526803190928</v>
+        <v>-2.868000500574466</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-4.478106044756622, -1.1069475616252333]</t>
+          <t>[-4.440369196064853, -1.2956318050840787]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.001706780713612632</v>
+        <v>0.0006331290155192626</v>
       </c>
       <c r="S14" t="n">
-        <v>0.001706780713612632</v>
+        <v>0.0006331290155192626</v>
       </c>
       <c r="T14" t="n">
-        <v>9.299048380328587</v>
+        <v>10.0491240398575</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[5.5322804122730656, 13.065816348384109]</t>
+          <t>[6.022097400640519, 14.07615067907448]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.008964292115166e-05</v>
+        <v>8.43481217249753e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>1.008964292115166e-05</v>
+        <v>8.43481217249753e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>10.3511111111112</v>
+        <v>10.57609609609618</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.103143143143184</v>
+        <v>4.777797797797835</v>
       </c>
       <c r="Z14" t="n">
-        <v>16.59907907907922</v>
+        <v>16.37439439439452</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.2900000000002</v>
+        <v>23.17000000000018</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06148505423623851</v>
+        <v>0.07321636955844457</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06148505423623851</v>
+        <v>0.07321636955844457</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>6.498200917281232</v>
+        <v>6.451084914663939</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-0.9286132778753213, 13.925015112437785]</t>
+          <t>[-0.7697706523295444, 13.671940481657423]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.08481535452468103</v>
+        <v>0.07866411778016924</v>
       </c>
       <c r="O15" t="n">
-        <v>0.08481535452468103</v>
+        <v>0.07866411778016924</v>
       </c>
       <c r="P15" t="n">
-        <v>-2.64157940842385</v>
+        <v>-2.276789871070081</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-4.452948145628776, -0.8302106712189237]</t>
+          <t>[-5.352343039449279, 0.798763297309117]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.005204647313992172</v>
+        <v>0.1429351662880158</v>
       </c>
       <c r="S15" t="n">
-        <v>0.005204647313992172</v>
+        <v>0.1429351662880158</v>
       </c>
       <c r="T15" t="n">
-        <v>10.08252318892918</v>
+        <v>10.47096497465056</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[6.259791332630424, 13.905255045227928]</t>
+          <t>[6.587784228874095, 14.354145720427017]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>3.231451137120089e-06</v>
+        <v>2.164047469666031e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>3.231451137120089e-06</v>
+        <v>2.164047469666031e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>9.791591591591676</v>
+        <v>8.395935935936004</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.077357357357382</v>
+        <v>-2.94553553553556</v>
       </c>
       <c r="Z15" t="n">
-        <v>16.50582582582597</v>
+        <v>19.73740740740757</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.2900000000002</v>
+        <v>23.17000000000018</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07128363624712974</v>
+        <v>0.1081869412987907</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07128363624712974</v>
+        <v>0.1081869412987907</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>7.344727612103447</v>
+        <v>6.504524740465701</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-1.3960309038975476, 16.085486128104442]</t>
+          <t>[-1.5287517960857926, 14.537801277017195]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.09747968181949784</v>
+        <v>0.1099097365432233</v>
       </c>
       <c r="O16" t="n">
-        <v>0.09747968181949784</v>
+        <v>0.1099097365432233</v>
       </c>
       <c r="P16" t="n">
-        <v>-2.440316215401081</v>
+        <v>-2.553526761476388</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-5.182527220336315, 0.3018947895341535]</t>
+          <t>[-5.666816778547354, 0.5597632555945777]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.07979852405946541</v>
+        <v>0.1055023576923992</v>
       </c>
       <c r="S16" t="n">
-        <v>0.07979852405946541</v>
+        <v>0.1055023576923992</v>
       </c>
       <c r="T16" t="n">
-        <v>11.26683429691472</v>
+        <v>11.47235472873299</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[6.84341091816027, 15.690257675669177]</t>
+          <t>[7.171954039127861, 15.772755418338114]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>5.95799607849834e-06</v>
+        <v>2.631698024169182e-06</v>
       </c>
       <c r="W16" t="n">
-        <v>5.95799607849834e-06</v>
+        <v>2.631698024169182e-06</v>
       </c>
       <c r="X16" t="n">
-        <v>9.045565565565644</v>
+        <v>9.416436436436511</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.119039039039047</v>
+        <v>-2.06419419419421</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.21017017017034</v>
+        <v>20.89706706706723</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.2900000000002</v>
+        <v>23.17000000000018</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05879164467904341</v>
+        <v>0.03112375922935529</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05879164467904341</v>
+        <v>0.03112375922935529</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>6.324549845014211</v>
+        <v>7.618309558828372</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-0.575710835070673, 13.224810525099095]</t>
+          <t>[0.16760153356910656, 15.069017584087637]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.0714676484386354</v>
+        <v>0.04526879020986851</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0714676484386354</v>
+        <v>0.04526879020986851</v>
       </c>
       <c r="P17" t="n">
-        <v>-2.603842559732081</v>
+        <v>-2.767368904063081</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-4.440369196064854, -0.7673159233993085]</t>
+          <t>[-4.125895456966775, -1.4088423511593873]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.006476566135172668</v>
+        <v>0.0001691506120218289</v>
       </c>
       <c r="S17" t="n">
-        <v>0.006476566135172668</v>
+        <v>0.0001691506120218289</v>
       </c>
       <c r="T17" t="n">
-        <v>10.6161208486228</v>
+        <v>10.65654680596686</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[6.9274500562089845, 14.304791641036621]</t>
+          <t>[6.654840681759877, 14.65825293017384]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>6.2509898435259e-07</v>
+        <v>2.717882675362659e-06</v>
       </c>
       <c r="W17" t="n">
-        <v>6.2509898435259e-07</v>
+        <v>2.717882675362659e-06</v>
       </c>
       <c r="X17" t="n">
-        <v>9.651711711711796</v>
+        <v>10.20500500500509</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.844224224224246</v>
+        <v>5.195275275275317</v>
       </c>
       <c r="Z17" t="n">
-        <v>16.45919919919934</v>
+        <v>15.21473473473485</v>
       </c>
     </row>
   </sheetData>
